--- a/Giai đoạn 4/TESTCASE_CUSTOMER.xlsx
+++ b/Giai đoạn 4/TESTCASE_CUSTOMER.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2af19818dbe9c1e7/Máy tính/TESTCASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="11_F25DC773A252ABDACC104832A1D875D05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0B8283-2783-43C3-9ABB-47ACC40D1866}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_F25DC773A252ABDACC104832A1D875D05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54C6DEB-40AE-4D40-84EB-84816B07DFB0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sign in" sheetId="1" r:id="rId1"/>
-    <sheet name="Sign up" sheetId="2" r:id="rId2"/>
-    <sheet name="Forgot-Reset Password" sheetId="3" r:id="rId3"/>
-    <sheet name="Change Password" sheetId="4" r:id="rId4"/>
-    <sheet name="Product List" sheetId="8" r:id="rId5"/>
-    <sheet name="Cart" sheetId="7" r:id="rId6"/>
-    <sheet name="Personal Information" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Sign in" sheetId="1" r:id="rId2"/>
+    <sheet name="Sign up" sheetId="2" r:id="rId3"/>
+    <sheet name="Forgot-Reset Password" sheetId="3" r:id="rId4"/>
+    <sheet name="Change Password" sheetId="4" r:id="rId5"/>
+    <sheet name="Product List" sheetId="8" r:id="rId6"/>
+    <sheet name="Cart" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal Information" sheetId="6" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sign in'!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Sign up'!$A$1:$I$15</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="282">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -52,9 +58,6 @@
   </si>
   <si>
     <t>Actual results</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Data Input</t>
@@ -905,12 +908,15 @@
   <si>
     <t>Điều hướng đến màn hình đặt hàng</t>
   </si>
+  <si>
+    <t>TESTCASE DÀNH CHO TRANG KHÁCH HÀNG (CUSTOMER)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +956,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1045,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,6 +1090,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,9 +1111,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,6 +1138,22 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1377,35 +1419,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC206D0-025F-474E-AD8C-B53B9C160493}">
+  <dimension ref="C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:3" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="C14" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -1431,279 +1494,266 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1713,39 +1763,45 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA943820-B528-4877-A35D-B86D63EE8DBA}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.21875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -1771,11 +1827,9 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1791,337 +1845,323 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="179.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2130,38 +2170,48 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="14" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F577F-1D91-4DF0-9B09-9C1EC3CC5E4E}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -2187,11 +2237,9 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2207,240 +2255,231 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A98B0-75FD-4C13-B429-D555F9749D97}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2456,9 +2495,8 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -2484,256 +2522,252 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
+        <v>165</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:B10"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2203DE43-D5D4-49E5-95AF-737673CE3DCB}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I12"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2749,9 +2783,8 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -2777,296 +2810,283 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>206</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>207</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>227</v>
+        <v>209</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>211</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52315CE7-6693-4209-A44B-57CFB11784FB}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3074,7 +3094,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3090,9 +3110,8 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -3118,235 +3137,223 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3357,44 +3364,44 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D3BB0-CDE6-4795-9EB4-6070B0A5BDF1}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3410,9 +3417,8 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
@@ -3438,223 +3444,212 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>198</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:B10"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Giai đoạn 4/TESTCASE_CUSTOMER.xlsx
+++ b/Giai đoạn 4/TESTCASE_CUSTOMER.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2af19818dbe9c1e7/Máy tính/TESTCASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2af19818dbe9c1e7/Máy tính/Documents/documents/Giai đoạn 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="11_F25DC773A252ABDACC104832A1D875D05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54C6DEB-40AE-4D40-84EB-84816B07DFB0}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="11_F25DC773A252ABDACC104832A1D875D05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6439AC54-891D-4A29-BAAC-31E8FE469542}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Cover" sheetId="9" r:id="rId1"/>
     <sheet name="Sign in" sheetId="1" r:id="rId2"/>
     <sheet name="Sign up" sheetId="2" r:id="rId3"/>
     <sheet name="Forgot-Reset Password" sheetId="3" r:id="rId4"/>
@@ -23,7 +23,7 @@
     <sheet name="Personal Information" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$N$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Sign in'!$A$1:$I$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Sign up'!$A$1:$I$15</definedName>
   </definedNames>
@@ -1096,6 +1096,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,7 +1112,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,7 +1430,7 @@
   </cols>
   <sheetData>
     <row r="14" spans="3:3" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -1463,10 +1463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1528,7 +1528,7 @@
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1557,7 +1557,7 @@
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1736,7 +1736,7 @@
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1789,10 +1789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1877,7 +1877,7 @@
       <c r="A4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1898,11 +1898,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="6" t="s">
         <v>60</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
@@ -1971,11 +1971,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="A11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6" t="s">
         <v>67</v>
       </c>
@@ -2111,11 +2111,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
         <v>68</v>
       </c>
@@ -2199,12 +2199,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2289,7 +2289,7 @@
       <c r="A4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2314,7 +2314,7 @@
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="6" t="s">
         <v>105</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="A6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6" t="s">
         <v>106</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="A7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="6" t="s">
         <v>107</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="A8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
         <v>108</v>
       </c>
@@ -2468,13 +2468,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2556,7 +2556,7 @@
       <c r="A4" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2581,7 +2581,7 @@
       <c r="A5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
         <v>142</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="A6" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
         <v>143</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="A7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>144</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>145</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="A9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
         <v>146</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="A10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
         <v>147</v>
       </c>
@@ -2756,14 +2756,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -2817,7 +2817,7 @@
       <c r="A3" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2842,7 +2842,7 @@
       <c r="A4" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6" t="s">
         <v>223</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="A5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
         <v>222</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="A6" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
         <v>221</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="A7" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>220</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="A8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>219</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="A9" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2982,7 +2982,7 @@
       <c r="A10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
         <v>227</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="A11" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
         <v>228</v>
       </c>
@@ -3083,10 +3083,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3144,7 +3144,7 @@
       <c r="A3" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3169,7 +3169,7 @@
       <c r="A4" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="6" t="s">
         <v>255</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="A5" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3217,7 +3217,7 @@
       <c r="A6" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
         <v>252</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="A7" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>253</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="A8" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>254</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="A10" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3336,7 +3336,7 @@
       <c r="A11" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
         <v>260</v>
       </c>
@@ -3390,13 +3390,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3478,7 +3478,7 @@
       <c r="A4" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3503,7 +3503,7 @@
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
         <v>175</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="A6" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
         <v>176</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="A7" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>177</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="A8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>186</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="A9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
         <v>187</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="A10" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
         <v>188</v>
       </c>

--- a/Giai đoạn 4/TESTCASE_CUSTOMER.xlsx
+++ b/Giai đoạn 4/TESTCASE_CUSTOMER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2af19818dbe9c1e7/Máy tính/Documents/documents/Giai đoạn 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2af19818dbe9c1e7/Máy tính/TESTCASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="11_F25DC773A252ABDACC104832A1D875D05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6439AC54-891D-4A29-BAAC-31E8FE469542}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="11_F25DC773A252ABDACC104832A1D875D05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB6D588-5B08-4D5D-AFAE-9A5329F27675}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="302">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -910,6 +910,66 @@
   </si>
   <si>
     <t>TESTCASE DÀNH CHO TRANG KHÁCH HÀNG (CUSTOMER)</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị đúng thông tin khách hàng từ DB</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị đúng Last Name</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị đúng First Name</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị đúng Gender</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị đúng Date Of Birth</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị đúng Phone</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiẻn thị đúng Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình Home &gt; Màn hình Account </t>
+  </si>
+  <si>
+    <t>Last Name hiển thị đúng thông tin trong DB</t>
+  </si>
+  <si>
+    <t>First Name hiển thị đúng thông tin trong DB</t>
+  </si>
+  <si>
+    <t>Gender hiển thị đúng thông tin trong DB</t>
+  </si>
+  <si>
+    <t>Date Of Birth hiển thị đúng thông tin trong DB</t>
+  </si>
+  <si>
+    <t>Phone hiển thị đúng thông tin trong DB</t>
+  </si>
+  <si>
+    <t>Address hiển thị đúng thông tin trong DB</t>
+  </si>
+  <si>
+    <t>TC_PI_09</t>
+  </si>
+  <si>
+    <t>TC_PI_10</t>
+  </si>
+  <si>
+    <t>TC_PI_11</t>
+  </si>
+  <si>
+    <t>TC_PI_12</t>
+  </si>
+  <si>
+    <t>TC_PI_13</t>
+  </si>
+  <si>
+    <t>TC_PI_14</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1112,6 +1172,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,6 +1226,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3370,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D3BB0-CDE6-4795-9EB4-6070B0A5BDF1}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3447,206 +3523,338 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:25" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B10"/>
+  <mergeCells count="4">
+    <mergeCell ref="B10:B16"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
